--- a/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_1.xlsx
+++ b/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\Arbeitszeitverwaltung_Sportcamp_Salcher\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42BD9E9-39AD-473F-97AC-18B4183690FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CB2D93-8F26-4174-B829-49A9E3F7F90A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{614CBF75-28EE-46ED-A2AB-BC83D877B8DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{614CBF75-28EE-46ED-A2AB-BC83D877B8DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Hohenwarter Philipp</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>Erstellung der Routen des NodeJS Webservers</t>
+  </si>
+  <si>
+    <t>Erstellung der User stories</t>
+  </si>
+  <si>
+    <t>Erstelllung der Mockups</t>
+  </si>
+  <si>
+    <t>Unterstützung bei der ERD entwicklung</t>
+  </si>
+  <si>
+    <t>Erstellung des Front-Ends für Mitarbeiterverwaltung</t>
   </si>
 </sst>
 </file>
@@ -110,9 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -427,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B796A2F-81B7-4E93-BA9A-E7E2D4BA1D28}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,6 +532,42 @@
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>SUM(C11:C14)</f>
+        <v>18.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_1.xlsx
+++ b/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\Arbeitszeitverwaltung_Sportcamp_Salcher\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edere\Documents\GitHub\Arbeitszeitverwaltung_Sport_Camp_Salcher\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CB2D93-8F26-4174-B829-49A9E3F7F90A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871815F8-78CD-4CB7-BA50-0A32F81D8596}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{614CBF75-28EE-46ED-A2AB-BC83D877B8DA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Hohenwarter Philipp</t>
   </si>
@@ -79,6 +79,27 @@
   </si>
   <si>
     <t>Erstellung des Front-Ends für Mitarbeiterverwaltung</t>
+  </si>
+  <si>
+    <t>Einrichten Jira</t>
+  </si>
+  <si>
+    <t>Iterationen erstellen</t>
+  </si>
+  <si>
+    <t>Arbeitsaufteilung</t>
+  </si>
+  <si>
+    <t>Erstellen Bootstrap Frontent</t>
+  </si>
+  <si>
+    <t>Google Login Frontent</t>
+  </si>
+  <si>
+    <t>Auth Backend</t>
+  </si>
+  <si>
+    <t>Modelliertung Datenbank</t>
   </si>
 </sst>
 </file>
@@ -440,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B796A2F-81B7-4E93-BA9A-E7E2D4BA1D28}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,11 +539,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
@@ -567,6 +583,71 @@
       <c r="C15">
         <f>SUM(C11:C14)</f>
         <v>18.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f>SUM(C18:C24)</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_1.xlsx
+++ b/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edere\Documents\GitHub\Arbeitszeitverwaltung_Sport_Camp_Salcher\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salch\Documents\GitHub\Arbeitszeitverwaltung_Sportcamp_Salcher\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871815F8-78CD-4CB7-BA50-0A32F81D8596}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60419974-0137-4A84-85BC-A69059148014}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{614CBF75-28EE-46ED-A2AB-BC83D877B8DA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Hohenwarter Philipp</t>
   </si>
@@ -100,13 +100,37 @@
   </si>
   <si>
     <t>Modelliertung Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche SQL Datenbank </t>
+  </si>
+  <si>
+    <t>Recherche Docker</t>
+  </si>
+  <si>
+    <t>Postgres Datenbank einrichten</t>
+  </si>
+  <si>
+    <t>MongoDB einrichten</t>
+  </si>
+  <si>
+    <t>Node.js Server intitialisieren und Git Repo aufsetzten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellen des Product Backlogs </t>
+  </si>
+  <si>
+    <t>Script für Node.js Server auto Deployment am Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellung des Lastenhefts </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +141,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -143,10 +175,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -461,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B796A2F-81B7-4E93-BA9A-E7E2D4BA1D28}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,9 +573,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -648,6 +679,79 @@
       <c r="C25">
         <f>SUM(C18:C24)</f>
         <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="3">
+        <f>SUM(C27:C34)</f>
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_1.xlsx
+++ b/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salch\Documents\GitHub\Arbeitszeitverwaltung_Sportcamp_Salcher\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\Arbeitszeitverwaltung_Sport_Camp_Salcher\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60419974-0137-4A84-85BC-A69059148014}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3884738-3155-4518-912C-7905CD2FBA4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{614CBF75-28EE-46ED-A2AB-BC83D877B8DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{614CBF75-28EE-46ED-A2AB-BC83D877B8DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -497,14 +497,14 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -567,7 +567,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8">
+      <c r="C8" s="3">
         <f>SUM(C2:C7)</f>
         <v>20</v>
       </c>
@@ -611,7 +611,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15">
+      <c r="C15" s="3">
         <f>SUM(C11:C14)</f>
         <v>18.5</v>
       </c>
@@ -676,7 +676,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25">
+      <c r="C25" s="3">
         <f>SUM(C18:C24)</f>
         <v>19</v>
       </c>
